--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1912.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1912.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA7B01-8395-45AD-9028-838EC25E9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73571593-1533-47E0-A1D3-751C647E3B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58050" yWindow="285" windowWidth="28830" windowHeight="23010" xr2:uid="{35E95752-6991-4FCC-85E3-B2FD05B0A7FB}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{35E95752-6991-4FCC-85E3-B2FD05B0A7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
   <si>
     <t>губ</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>чс-уез-о YY</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -554,6 +563,8 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36443B93-EFA9-4850-92EF-B92F0856B897}">
-  <dimension ref="A1:AC132"/>
+  <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="AJ109" sqref="AJ109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -899,9 +910,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.68359375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,8 +998,17 @@
       <c r="AC1" s="6" t="s">
         <v>139</v>
       </c>
+      <c r="AE1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1078,8 +1099,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
+      <c r="AE2" s="11">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1203,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1181,8 +1226,8 @@
       <c r="C4" s="2">
         <v>95736</v>
       </c>
-      <c r="D4" s="2">
-        <v>63955</v>
+      <c r="D4" s="12">
+        <v>63055</v>
       </c>
       <c r="F4" s="4">
         <v>63416</v>
@@ -1262,8 +1307,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE4" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1354,8 +1411,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1446,8 +1515,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1538,8 +1619,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1630,8 +1723,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1722,8 +1827,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1814,8 +1931,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1906,8 +2035,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1998,8 +2139,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2090,8 +2243,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE13" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2182,8 +2347,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2193,8 +2370,8 @@
       <c r="C15" s="2">
         <v>81101</v>
       </c>
-      <c r="D15" s="2">
-        <v>53914</v>
+      <c r="D15" s="12">
+        <v>53911</v>
       </c>
       <c r="F15" s="4">
         <v>71935</v>
@@ -2274,8 +2451,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2366,8 +2555,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2458,8 +2659,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2469,8 +2682,8 @@
       <c r="C18" s="2">
         <v>510397</v>
       </c>
-      <c r="D18" s="2">
-        <v>343499</v>
+      <c r="D18" s="12">
+        <v>343409</v>
       </c>
       <c r="F18" s="4">
         <v>1443258</v>
@@ -2550,8 +2763,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2642,8 +2867,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE19" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2734,8 +2971,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE20" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2826,8 +3075,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2918,8 +3179,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3010,8 +3283,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE23" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3102,16 +3387,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE24" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>17632921</v>
       </c>
-      <c r="C25" s="2">
-        <v>896666</v>
+      <c r="C25" s="12">
+        <v>806666</v>
       </c>
       <c r="D25" s="2">
         <v>478423</v>
@@ -3194,8 +3491,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE25" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3286,8 +3595,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE26" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3378,8 +3699,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE27" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3389,8 +3722,8 @@
       <c r="C28" s="2">
         <v>94605</v>
       </c>
-      <c r="D28" s="2">
-        <v>61693</v>
+      <c r="D28" s="12">
+        <v>64693</v>
       </c>
       <c r="F28" s="4">
         <v>88137</v>
@@ -3470,8 +3803,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE28" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3562,8 +3907,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE29" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3573,8 +3930,8 @@
       <c r="C30" s="2">
         <v>117335</v>
       </c>
-      <c r="D30" s="2">
-        <v>79106</v>
+      <c r="D30" s="12">
+        <v>79406</v>
       </c>
       <c r="F30" s="4">
         <v>130631</v>
@@ -3654,8 +4011,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE30" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3746,8 +4115,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE31" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3838,19 +4219,31 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE32" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>3732681</v>
       </c>
-      <c r="C33" s="2">
-        <v>206303</v>
-      </c>
-      <c r="D33" s="2">
-        <v>162253</v>
+      <c r="C33" s="12">
+        <v>206305</v>
+      </c>
+      <c r="D33" s="12">
+        <v>162255</v>
       </c>
       <c r="F33" s="4">
         <v>103855</v>
@@ -3930,8 +4323,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE33" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4022,8 +4427,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE34" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -4114,8 +4531,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE35" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -4206,8 +4635,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4298,8 +4739,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE37" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -4390,8 +4843,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -4482,8 +4947,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE39" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -4574,8 +5051,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE40" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -4666,8 +5155,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE41" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -4758,8 +5259,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE42" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4850,8 +5363,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE43" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4942,8 +5467,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE44" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -5034,8 +5571,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE45" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -5126,13 +5675,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE46" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
-        <v>12455099</v>
+      <c r="B47" s="12">
+        <v>12455009</v>
       </c>
       <c r="C47" s="2">
         <v>481987</v>
@@ -5218,8 +5779,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE47" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -5310,8 +5883,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE48" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -5402,8 +5987,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE49" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -5494,19 +6091,31 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE50" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>575000</v>
       </c>
-      <c r="C51" s="2">
-        <v>14760</v>
-      </c>
-      <c r="D51" s="2">
-        <v>9464</v>
+      <c r="C51" s="12">
+        <v>14780</v>
+      </c>
+      <c r="D51" s="12">
+        <v>9404</v>
       </c>
       <c r="F51" s="4">
         <v>290835</v>
@@ -5586,8 +6195,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE51" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -5678,8 +6299,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE52" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5770,8 +6403,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE53" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5862,8 +6507,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE54" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -5954,8 +6611,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE55" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -6046,8 +6715,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE56" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -6139,8 +6820,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE57" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -6232,8 +6925,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE58" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6325,8 +7030,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE59" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6418,8 +7135,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE60" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -6511,8 +7240,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE61" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6604,8 +7345,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE62" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -6697,8 +7450,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE63" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -6790,8 +7555,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE64" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -6883,8 +7660,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE65" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -6976,8 +7765,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE66" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -7001,7 +7802,7 @@
         <v>437116</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" ref="I67:I122" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I122" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="4">
@@ -7014,7 +7815,7 @@
         <v>14192</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M122" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M122" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="4">
@@ -7027,7 +7828,7 @@
         <v>11068</v>
       </c>
       <c r="Q67" s="7">
-        <f t="shared" ref="Q67:Q122" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q122" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="4">
@@ -7040,7 +7841,7 @@
         <v>1015101</v>
       </c>
       <c r="U67" s="7">
-        <f t="shared" ref="U67:U122" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U122" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="4">
@@ -7053,7 +7854,7 @@
         <v>20289</v>
       </c>
       <c r="Y67" s="7">
-        <f t="shared" ref="Y67:Y122" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y122" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="4">
@@ -7066,11 +7867,23 @@
         <v>15820</v>
       </c>
       <c r="AC67" s="7">
-        <f t="shared" ref="AC67:AC122" si="11">Z67+AA67-AB67</f>
+        <f t="shared" ref="AC67:AC122" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="11">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="11">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="11">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -7094,7 +7907,7 @@
         <v>85191</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
@@ -7107,7 +7920,7 @@
         <v>3073</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="4">
@@ -7120,7 +7933,7 @@
         <v>2227</v>
       </c>
       <c r="Q68" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="4">
@@ -7133,7 +7946,7 @@
         <v>388316</v>
       </c>
       <c r="U68" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="4">
@@ -7146,7 +7959,7 @@
         <v>8827</v>
       </c>
       <c r="Y68" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="4">
@@ -7159,16 +7972,28 @@
         <v>6204</v>
       </c>
       <c r="AC68" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="2">
-        <v>2694542</v>
+      <c r="B69" s="12">
+        <v>2694842</v>
       </c>
       <c r="C69" s="2">
         <v>65148</v>
@@ -7187,7 +8012,7 @@
         <v>719825</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
@@ -7200,7 +8025,7 @@
         <v>22754</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="4">
@@ -7213,7 +8038,7 @@
         <v>16519</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="4">
@@ -7226,7 +8051,7 @@
         <v>1975017</v>
       </c>
       <c r="U69" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="4">
@@ -7239,7 +8064,7 @@
         <v>42394</v>
       </c>
       <c r="Y69" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="4">
@@ -7252,11 +8077,23 @@
         <v>31252</v>
       </c>
       <c r="AC69" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -7280,7 +8117,7 @@
         <v>16643960</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
@@ -7293,7 +8130,7 @@
         <v>556506</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="4">
@@ -7306,7 +8143,7 @@
         <v>396692</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="4">
@@ -7319,7 +8156,7 @@
         <v>107126128</v>
       </c>
       <c r="U70" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="4">
@@ -7332,7 +8169,7 @@
         <v>4684656</v>
       </c>
       <c r="Y70" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="4">
@@ -7345,11 +8182,23 @@
         <v>2779405</v>
       </c>
       <c r="AC70" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -7373,7 +8222,7 @@
         <v>11903513</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="4">
@@ -7386,7 +8235,7 @@
         <v>416061</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="4">
@@ -7399,7 +8248,7 @@
         <v>303306</v>
       </c>
       <c r="Q71" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="4">
@@ -7412,7 +8261,7 @@
         <v>76515826</v>
       </c>
       <c r="U71" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="4">
@@ -7425,7 +8274,7 @@
         <v>3485977</v>
       </c>
       <c r="Y71" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="4">
@@ -7438,11 +8287,23 @@
         <v>2148019</v>
       </c>
       <c r="AC71" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -7466,7 +8327,7 @@
         <v>3634359</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
@@ -7479,7 +8340,7 @@
         <v>100576</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="4">
@@ -7492,7 +8353,7 @@
         <v>65811</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="4">
@@ -7505,7 +8366,7 @@
         <v>25627626</v>
       </c>
       <c r="U72" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="4">
@@ -7518,7 +8379,7 @@
         <v>998668</v>
       </c>
       <c r="Y72" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="4">
@@ -7531,11 +8392,23 @@
         <v>524015</v>
       </c>
       <c r="AC72" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -7559,7 +8432,7 @@
         <v>151396</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="4">
@@ -7572,7 +8445,7 @@
         <v>4814</v>
       </c>
       <c r="M73" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="4">
@@ -7585,7 +8458,7 @@
         <v>2591</v>
       </c>
       <c r="Q73" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="4">
@@ -7598,7 +8471,7 @@
         <v>1537200</v>
       </c>
       <c r="U73" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="4">
@@ -7611,7 +8484,7 @@
         <v>51524</v>
       </c>
       <c r="Y73" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="4">
@@ -7624,11 +8497,23 @@
         <v>29054</v>
       </c>
       <c r="AC73" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -7652,7 +8537,7 @@
         <v>821369</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="4">
@@ -7665,7 +8550,7 @@
         <v>21732</v>
       </c>
       <c r="M74" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="4">
@@ -7678,7 +8563,7 @@
         <v>15522</v>
       </c>
       <c r="Q74" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="4">
@@ -7691,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="4">
@@ -7704,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="4">
@@ -7717,11 +8602,23 @@
         <v>0</v>
       </c>
       <c r="AC74" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -7745,7 +8642,7 @@
         <v>134934</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="4">
@@ -7758,7 +8655,7 @@
         <v>3984</v>
       </c>
       <c r="M75" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="4">
@@ -7771,7 +8668,7 @@
         <v>2201</v>
       </c>
       <c r="Q75" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="4">
@@ -7784,7 +8681,7 @@
         <v>1221908</v>
       </c>
       <c r="U75" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="4">
@@ -7797,7 +8694,7 @@
         <v>41512</v>
       </c>
       <c r="Y75" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="4">
@@ -7810,11 +8707,23 @@
         <v>22338</v>
       </c>
       <c r="AC75" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -7838,7 +8747,7 @@
         <v>80000</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="4">
@@ -7851,7 +8760,7 @@
         <v>2211</v>
       </c>
       <c r="M76" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="4">
@@ -7864,7 +8773,7 @@
         <v>1408</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="4">
@@ -7877,7 +8786,7 @@
         <v>912500</v>
       </c>
       <c r="U76" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="4">
@@ -7890,7 +8799,7 @@
         <v>31637</v>
       </c>
       <c r="Y76" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="4">
@@ -7903,11 +8812,23 @@
         <v>16456</v>
       </c>
       <c r="AC76" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -7931,7 +8852,7 @@
         <v>89564</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="4">
@@ -7944,7 +8865,7 @@
         <v>2006</v>
       </c>
       <c r="M77" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="4">
@@ -7957,7 +8878,7 @@
         <v>1458</v>
       </c>
       <c r="Q77" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="4">
@@ -7970,7 +8891,7 @@
         <v>678927</v>
       </c>
       <c r="U77" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="4">
@@ -7983,7 +8904,7 @@
         <v>18992</v>
       </c>
       <c r="Y77" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="4">
@@ -7996,11 +8917,23 @@
         <v>10327</v>
       </c>
       <c r="AC77" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -8024,7 +8957,7 @@
         <v>189365</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="4">
@@ -8037,7 +8970,7 @@
         <v>4537</v>
       </c>
       <c r="M78" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="4">
@@ -8050,7 +8983,7 @@
         <v>3112</v>
       </c>
       <c r="Q78" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="4">
@@ -8063,7 +8996,7 @@
         <v>1481256</v>
       </c>
       <c r="U78" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="4">
@@ -8076,7 +9009,7 @@
         <v>43610</v>
       </c>
       <c r="Y78" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="4">
@@ -8089,11 +9022,23 @@
         <v>22507</v>
       </c>
       <c r="AC78" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -8117,7 +9062,7 @@
         <v>675217</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="4">
@@ -8130,7 +9075,7 @@
         <v>40786</v>
       </c>
       <c r="M79" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="4">
@@ -8143,7 +9088,7 @@
         <v>18410</v>
       </c>
       <c r="Q79" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="4">
@@ -8156,7 +9101,7 @@
         <v>1541094</v>
       </c>
       <c r="U79" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="4">
@@ -8169,7 +9114,7 @@
         <v>62826</v>
       </c>
       <c r="Y79" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="4">
@@ -8182,11 +9127,23 @@
         <v>31513</v>
       </c>
       <c r="AC79" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -8210,7 +9167,7 @@
         <v>90466</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="4">
@@ -8223,7 +9180,7 @@
         <v>2176</v>
       </c>
       <c r="M80" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="4">
@@ -8236,7 +9193,7 @@
         <v>1595</v>
       </c>
       <c r="Q80" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="4">
@@ -8249,7 +9206,7 @@
         <v>683683</v>
       </c>
       <c r="U80" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="4">
@@ -8262,7 +9219,7 @@
         <v>20093</v>
       </c>
       <c r="Y80" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="4">
@@ -8275,11 +9232,23 @@
         <v>12693</v>
       </c>
       <c r="AC80" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -8303,7 +9272,7 @@
         <v>102457</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="4">
@@ -8316,7 +9285,7 @@
         <v>3671</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="4">
@@ -8329,7 +9298,7 @@
         <v>2313</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="4">
@@ -8342,7 +9311,7 @@
         <v>1167290</v>
       </c>
       <c r="U81" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="4">
@@ -8355,7 +9324,7 @@
         <v>38981</v>
       </c>
       <c r="Y81" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="4">
@@ -8368,11 +9337,23 @@
         <v>21416</v>
       </c>
       <c r="AC81" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -8396,7 +9377,7 @@
         <v>67397</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="4">
@@ -8409,7 +9390,7 @@
         <v>1068</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="4">
@@ -8422,7 +9403,7 @@
         <v>722</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="4">
@@ -8435,7 +9416,7 @@
         <v>586883</v>
       </c>
       <c r="U82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="4">
@@ -8448,7 +9429,7 @@
         <v>14668</v>
       </c>
       <c r="Y82" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="4">
@@ -8461,11 +9442,23 @@
         <v>10663</v>
       </c>
       <c r="AC82" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -8489,7 +9482,7 @@
         <v>115553</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="4">
@@ -8502,7 +9495,7 @@
         <v>2172</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="4">
@@ -8515,7 +9508,7 @@
         <v>1270</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R83" s="4">
@@ -8528,7 +9521,7 @@
         <v>950613</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="4">
@@ -8541,7 +9534,7 @@
         <v>27117</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="4">
@@ -8554,11 +9547,23 @@
         <v>15263</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -8582,7 +9587,7 @@
         <v>2517718</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="4">
@@ -8595,7 +9600,7 @@
         <v>89157</v>
       </c>
       <c r="M84" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="4">
@@ -8608,7 +9613,7 @@
         <v>50602</v>
       </c>
       <c r="Q84" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="4">
@@ -8621,7 +9626,7 @@
         <v>10761354</v>
       </c>
       <c r="U84" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="4">
@@ -8634,7 +9639,7 @@
         <v>350960</v>
       </c>
       <c r="Y84" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="4">
@@ -8647,11 +9652,23 @@
         <v>192230</v>
       </c>
       <c r="AC84" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -8675,7 +9692,7 @@
         <v>19161678</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="4">
@@ -8688,7 +9705,7 @@
         <v>645663</v>
       </c>
       <c r="M85" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="4">
@@ -8701,7 +9718,7 @@
         <v>447294</v>
       </c>
       <c r="Q85" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="4">
@@ -8714,7 +9731,7 @@
         <v>117887482</v>
       </c>
       <c r="U85" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="4">
@@ -8727,7 +9744,7 @@
         <v>5035616</v>
       </c>
       <c r="Y85" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="4">
@@ -8740,11 +9757,23 @@
         <v>2971635</v>
       </c>
       <c r="AC85" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -8768,7 +9797,7 @@
         <v>1980182</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="4">
@@ -8781,7 +9810,7 @@
         <v>53281</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="4">
@@ -8794,7 +9823,7 @@
         <v>34154</v>
       </c>
       <c r="Q86" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="4">
@@ -8807,7 +9836,7 @@
         <v>10741992</v>
       </c>
       <c r="U86" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="4">
@@ -8820,7 +9849,7 @@
         <v>437273</v>
       </c>
       <c r="Y86" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="4">
@@ -8833,11 +9862,23 @@
         <v>238433</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -8861,7 +9902,7 @@
         <v>1053185</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="4">
@@ -8874,7 +9915,7 @@
         <v>40032</v>
       </c>
       <c r="M87" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="4">
@@ -8887,7 +9928,7 @@
         <v>28234</v>
       </c>
       <c r="Q87" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R87" s="4">
@@ -8900,7 +9941,7 @@
         <v>8901263</v>
       </c>
       <c r="U87" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="4">
@@ -8913,7 +9954,7 @@
         <v>448421</v>
       </c>
       <c r="Y87" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z87" s="4">
@@ -8926,11 +9967,23 @@
         <v>277257</v>
       </c>
       <c r="AC87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -8954,7 +10007,7 @@
         <v>1498966</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88" s="4">
@@ -8967,7 +10020,7 @@
         <v>47585</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N88" s="4">
@@ -8980,7 +10033,7 @@
         <v>29588</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R88" s="4">
@@ -8993,7 +10046,7 @@
         <v>9543798</v>
       </c>
       <c r="U88" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V88" s="4">
@@ -9006,7 +10059,7 @@
         <v>317808</v>
       </c>
       <c r="Y88" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z88" s="4">
@@ -9019,11 +10072,23 @@
         <v>177158</v>
       </c>
       <c r="AC88" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -9047,7 +10112,7 @@
         <v>4532333</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="4">
@@ -9060,7 +10125,7 @@
         <v>140898</v>
       </c>
       <c r="M89" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N89" s="4">
@@ -9073,7 +10138,7 @@
         <v>91976</v>
       </c>
       <c r="Q89" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R89" s="4">
@@ -9086,7 +10151,7 @@
         <v>29187053</v>
       </c>
       <c r="U89" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V89" s="4">
@@ -9099,7 +10164,7 @@
         <v>1203502</v>
       </c>
       <c r="Y89" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z89" s="4">
@@ -9112,11 +10177,23 @@
         <v>692848</v>
       </c>
       <c r="AC89" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -9140,7 +10217,7 @@
         <v>23694011</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90" s="4">
@@ -9153,7 +10230,7 @@
         <v>786561</v>
       </c>
       <c r="M90" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N90" s="4">
@@ -9166,7 +10243,7 @@
         <v>539270</v>
       </c>
       <c r="Q90" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R90" s="4">
@@ -9179,7 +10256,7 @@
         <v>147074535</v>
       </c>
       <c r="U90" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V90" s="4">
@@ -9192,7 +10269,7 @@
         <v>6239118</v>
       </c>
       <c r="Y90" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z90" s="4">
@@ -9205,11 +10282,23 @@
         <v>3664483</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -9233,7 +10322,7 @@
         <v>92188</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91" s="4">
@@ -9246,7 +10335,7 @@
         <v>1310</v>
       </c>
       <c r="M91" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N91" s="4">
@@ -9259,7 +10348,7 @@
         <v>921</v>
       </c>
       <c r="Q91" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R91" s="4">
@@ -9272,7 +10361,7 @@
         <v>713214</v>
       </c>
       <c r="U91" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V91" s="4">
@@ -9285,7 +10374,7 @@
         <v>18267</v>
       </c>
       <c r="Y91" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z91" s="4">
@@ -9298,11 +10387,23 @@
         <v>13486</v>
       </c>
       <c r="AC91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -9326,7 +10427,7 @@
         <v>380968</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="4">
@@ -9339,7 +10440,7 @@
         <v>9971</v>
       </c>
       <c r="M92" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N92" s="4">
@@ -9352,7 +10453,7 @@
         <v>6288</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R92" s="4">
@@ -9365,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V92" s="4">
@@ -9378,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z92" s="4">
@@ -9391,11 +10492,23 @@
         <v>0</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -9419,7 +10532,7 @@
         <v>41868</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="4">
@@ -9432,7 +10545,7 @@
         <v>1103</v>
       </c>
       <c r="M93" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N93" s="4">
@@ -9445,7 +10558,7 @@
         <v>627</v>
       </c>
       <c r="Q93" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R93" s="4">
@@ -9458,7 +10571,7 @@
         <v>134992</v>
       </c>
       <c r="U93" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V93" s="4">
@@ -9471,7 +10584,7 @@
         <v>3074</v>
       </c>
       <c r="Y93" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z93" s="4">
@@ -9484,11 +10597,23 @@
         <v>1340</v>
       </c>
       <c r="AC93" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -9512,7 +10637,7 @@
         <v>71852</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="4">
@@ -9525,7 +10650,7 @@
         <v>1723</v>
       </c>
       <c r="M94" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N94" s="4">
@@ -9538,7 +10663,7 @@
         <v>1341</v>
       </c>
       <c r="Q94" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R94" s="4">
@@ -9551,7 +10676,7 @@
         <v>621259</v>
       </c>
       <c r="U94" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V94" s="4">
@@ -9564,7 +10689,7 @@
         <v>14031</v>
       </c>
       <c r="Y94" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z94" s="4">
@@ -9577,11 +10702,23 @@
         <v>10609</v>
       </c>
       <c r="AC94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -9605,7 +10742,7 @@
         <v>143924</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="4">
@@ -9618,7 +10755,7 @@
         <v>2692</v>
       </c>
       <c r="M95" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N95" s="4">
@@ -9631,7 +10768,7 @@
         <v>1789</v>
       </c>
       <c r="Q95" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R95" s="4">
@@ -9644,7 +10781,7 @@
         <v>1096950</v>
       </c>
       <c r="U95" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V95" s="4">
@@ -9657,7 +10794,7 @@
         <v>24882</v>
       </c>
       <c r="Y95" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z95" s="4">
@@ -9670,11 +10807,23 @@
         <v>15140</v>
       </c>
       <c r="AC95" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -9698,7 +10847,7 @@
         <v>43573</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="4">
@@ -9711,7 +10860,7 @@
         <v>1132</v>
       </c>
       <c r="M96" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N96" s="4">
@@ -9724,7 +10873,7 @@
         <v>577</v>
       </c>
       <c r="Q96" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R96" s="4">
@@ -9737,7 +10886,7 @@
         <v>337079</v>
       </c>
       <c r="U96" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V96" s="4">
@@ -9750,7 +10899,7 @@
         <v>13736</v>
       </c>
       <c r="Y96" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z96" s="4">
@@ -9763,11 +10912,23 @@
         <v>6566</v>
       </c>
       <c r="AC96" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -9791,7 +10952,7 @@
         <v>241476</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97" s="4">
@@ -9804,7 +10965,7 @@
         <v>10015</v>
       </c>
       <c r="M97" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N97" s="4">
@@ -9817,7 +10978,7 @@
         <v>6602</v>
       </c>
       <c r="Q97" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R97" s="4">
@@ -9830,7 +10991,7 @@
         <v>2699953</v>
       </c>
       <c r="U97" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V97" s="4">
@@ -9843,7 +11004,7 @@
         <v>144391</v>
       </c>
       <c r="Y97" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z97" s="4">
@@ -9856,11 +11017,23 @@
         <v>73189</v>
       </c>
       <c r="AC97" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE97" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -9884,7 +11057,7 @@
         <v>109116</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J98" s="4">
@@ -9897,7 +11070,7 @@
         <v>2182</v>
       </c>
       <c r="M98" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N98" s="4">
@@ -9910,7 +11083,7 @@
         <v>1451</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R98" s="4">
@@ -9923,7 +11096,7 @@
         <v>1049306</v>
       </c>
       <c r="U98" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V98" s="4">
@@ -9936,7 +11109,7 @@
         <v>28427</v>
       </c>
       <c r="Y98" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z98" s="4">
@@ -9949,11 +11122,23 @@
         <v>15075</v>
       </c>
       <c r="AC98" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -9977,7 +11162,7 @@
         <v>77291</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J99" s="4">
@@ -9990,7 +11175,7 @@
         <v>2612</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N99" s="4">
@@ -10003,7 +11188,7 @@
         <v>1562</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R99" s="4">
@@ -10016,7 +11201,7 @@
         <v>1181234</v>
       </c>
       <c r="U99" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V99" s="4">
@@ -10029,7 +11214,7 @@
         <v>67069</v>
       </c>
       <c r="Y99" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z99" s="4">
@@ -10042,11 +11227,23 @@
         <v>37497</v>
       </c>
       <c r="AC99" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -10070,7 +11267,7 @@
         <v>199049</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100" s="4">
@@ -10083,7 +11280,7 @@
         <v>7748</v>
       </c>
       <c r="M100" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N100" s="4">
@@ -10096,7 +11293,7 @@
         <v>5105</v>
       </c>
       <c r="Q100" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R100" s="4">
@@ -10109,7 +11306,7 @@
         <v>998448</v>
       </c>
       <c r="U100" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V100" s="4">
@@ -10122,7 +11319,7 @@
         <v>44495</v>
       </c>
       <c r="Y100" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z100" s="4">
@@ -10135,11 +11332,23 @@
         <v>23939</v>
       </c>
       <c r="AC100" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -10163,7 +11372,7 @@
         <v>398109</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101" s="4">
@@ -10176,7 +11385,7 @@
         <v>7713</v>
       </c>
       <c r="M101" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N101" s="4">
@@ -10189,7 +11398,7 @@
         <v>4909</v>
       </c>
       <c r="Q101" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R101" s="4">
@@ -10202,7 +11411,7 @@
         <v>1003892</v>
       </c>
       <c r="U101" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="4">
@@ -10215,7 +11424,7 @@
         <v>41027</v>
       </c>
       <c r="Y101" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z101" s="4">
@@ -10228,11 +11437,23 @@
         <v>22256</v>
       </c>
       <c r="AC101" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -10256,7 +11477,7 @@
         <v>88542</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="4">
@@ -10269,7 +11490,7 @@
         <v>2362</v>
       </c>
       <c r="M102" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="4">
@@ -10282,7 +11503,7 @@
         <v>1325</v>
       </c>
       <c r="Q102" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="4">
@@ -10295,7 +11516,7 @@
         <v>79272</v>
       </c>
       <c r="U102" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="4">
@@ -10308,7 +11529,7 @@
         <v>3174</v>
       </c>
       <c r="Y102" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="4">
@@ -10321,11 +11542,23 @@
         <v>1534</v>
       </c>
       <c r="AC102" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -10349,7 +11582,7 @@
         <v>92226</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="4">
@@ -10362,7 +11595,7 @@
         <v>2718</v>
       </c>
       <c r="M103" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="4">
@@ -10375,7 +11608,7 @@
         <v>1657</v>
       </c>
       <c r="Q103" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="4">
@@ -10388,7 +11621,7 @@
         <v>826393</v>
       </c>
       <c r="U103" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="4">
@@ -10401,7 +11634,7 @@
         <v>34700</v>
       </c>
       <c r="Y103" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="4">
@@ -10414,11 +11647,23 @@
         <v>17802</v>
       </c>
       <c r="AC103" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -10442,7 +11687,7 @@
         <v>75458</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J104" s="5">
@@ -10455,7 +11700,7 @@
         <v>3980</v>
       </c>
       <c r="M104" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N104" s="5">
@@ -10468,7 +11713,7 @@
         <v>3045</v>
       </c>
       <c r="Q104" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R104" s="5">
@@ -10481,7 +11726,7 @@
         <v>201456</v>
       </c>
       <c r="U104" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="5">
@@ -10494,7 +11739,7 @@
         <v>8495</v>
       </c>
       <c r="Y104" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z104" s="2">
@@ -10507,11 +11752,23 @@
         <v>4138</v>
       </c>
       <c r="AC104" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -10535,7 +11792,7 @@
         <v>134677</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105" s="4">
@@ -10548,7 +11805,7 @@
         <v>5138</v>
       </c>
       <c r="M105" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N105" s="4">
@@ -10561,7 +11818,7 @@
         <v>3919</v>
       </c>
       <c r="Q105" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R105" s="4">
@@ -10574,7 +11831,7 @@
         <v>941504</v>
       </c>
       <c r="U105" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V105" s="4">
@@ -10587,7 +11844,7 @@
         <v>53302</v>
       </c>
       <c r="Y105" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z105" s="2">
@@ -10600,11 +11857,23 @@
         <v>32532</v>
       </c>
       <c r="AC105" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -10628,7 +11897,7 @@
         <v>124011</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J106" s="4">
@@ -10641,7 +11910,7 @@
         <v>4446</v>
       </c>
       <c r="M106" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N106" s="4">
@@ -10654,7 +11923,7 @@
         <v>2233</v>
       </c>
       <c r="Q106" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R106" s="4">
@@ -10667,7 +11936,7 @@
         <v>774342</v>
       </c>
       <c r="U106" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V106" s="4">
@@ -10680,7 +11949,7 @@
         <v>30485</v>
       </c>
       <c r="Y106" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z106" s="2">
@@ -10693,11 +11962,23 @@
         <v>19407</v>
       </c>
       <c r="AC106" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -10721,7 +12002,7 @@
         <v>138395</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J107" s="4">
@@ -10734,7 +12015,7 @@
         <v>4855</v>
       </c>
       <c r="M107" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N107" s="4">
@@ -10747,7 +12028,7 @@
         <v>3231</v>
       </c>
       <c r="Q107" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R107" s="4">
@@ -10760,7 +12041,7 @@
         <v>557616</v>
       </c>
       <c r="U107" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V107" s="4">
@@ -10773,7 +12054,7 @@
         <v>22116</v>
       </c>
       <c r="Y107" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z107" s="2">
@@ -10786,11 +12067,23 @@
         <v>14211</v>
       </c>
       <c r="AC107" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE107" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -10813,7 +12106,7 @@
         <v>2600</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J108" s="4">
@@ -10826,7 +12119,7 @@
         <v>178</v>
       </c>
       <c r="M108" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N108" s="4">
@@ -10839,7 +12132,7 @@
         <v>138</v>
       </c>
       <c r="Q108" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R108" s="4">
@@ -10852,7 +12145,7 @@
         <v>35900</v>
       </c>
       <c r="U108" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V108" s="4">
@@ -10865,7 +12158,7 @@
         <v>485</v>
       </c>
       <c r="Y108" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z108" s="2">
@@ -10878,11 +12171,23 @@
         <v>400</v>
       </c>
       <c r="AC108" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE108" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF108" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -10905,7 +12210,7 @@
         <v>201036</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J109" s="4">
@@ -10918,7 +12223,7 @@
         <v>5762</v>
       </c>
       <c r="M109" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N109" s="4">
@@ -10931,7 +12236,7 @@
         <v>3747</v>
       </c>
       <c r="Q109" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R109" s="4">
@@ -10944,7 +12249,7 @@
         <v>383536</v>
       </c>
       <c r="U109" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V109" s="4">
@@ -10957,7 +12262,7 @@
         <v>13491</v>
       </c>
       <c r="Y109" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z109" s="2">
@@ -10970,11 +12275,23 @@
         <v>6140</v>
       </c>
       <c r="AC109" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -10997,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J110" s="4">
@@ -11010,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N110" s="4">
@@ -11023,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R110" s="4">
@@ -11036,7 +12353,7 @@
         <v>7796</v>
       </c>
       <c r="U110" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V110" s="4">
@@ -11049,7 +12366,7 @@
         <v>174</v>
       </c>
       <c r="Y110" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z110" s="2">
@@ -11062,11 +12379,23 @@
         <v>134</v>
       </c>
       <c r="AC110" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE110" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF110" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG110" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -11089,7 +12418,7 @@
         <v>144837</v>
       </c>
       <c r="I111" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J111" s="4">
@@ -11102,7 +12431,7 @@
         <v>5200</v>
       </c>
       <c r="M111" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N111" s="4">
@@ -11115,7 +12444,7 @@
         <v>4580</v>
       </c>
       <c r="Q111" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R111" s="4">
@@ -11128,7 +12457,7 @@
         <v>1962389</v>
       </c>
       <c r="U111" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V111" s="4">
@@ -11141,7 +12470,7 @@
         <v>101369</v>
       </c>
       <c r="Y111" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z111" s="2">
@@ -11154,11 +12483,23 @@
         <v>69027</v>
       </c>
       <c r="AC111" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE111" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF111" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG111" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -11181,7 +12522,7 @@
         <v>219795</v>
       </c>
       <c r="I112" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J112" s="4">
@@ -11194,7 +12535,7 @@
         <v>9701</v>
       </c>
       <c r="M112" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N112" s="4">
@@ -11207,7 +12548,7 @@
         <v>6577</v>
       </c>
       <c r="Q112" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R112" s="4">
@@ -11220,7 +12561,7 @@
         <v>3791629</v>
       </c>
       <c r="U112" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V112" s="4">
@@ -11233,7 +12574,7 @@
         <v>208611</v>
       </c>
       <c r="Y112" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z112" s="2">
@@ -11246,11 +12587,23 @@
         <v>124513</v>
       </c>
       <c r="AC112" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE112" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF112" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG112" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -11273,7 +12626,7 @@
         <v>12376</v>
       </c>
       <c r="I113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J113" s="4">
@@ -11286,7 +12639,7 @@
         <v>772</v>
       </c>
       <c r="M113" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N113" s="4">
@@ -11299,7 +12652,7 @@
         <v>764</v>
       </c>
       <c r="Q113" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R113" s="4">
@@ -11312,7 +12665,7 @@
         <v>245095</v>
       </c>
       <c r="U113" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V113" s="4">
@@ -11325,7 +12678,7 @@
         <v>9893</v>
       </c>
       <c r="Y113" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z113" s="2">
@@ -11338,11 +12691,23 @@
         <v>6755</v>
       </c>
       <c r="AC113" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE113" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF113" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -11365,7 +12730,7 @@
         <v>199035</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J114" s="4">
@@ -11378,7 +12743,7 @@
         <v>7137</v>
       </c>
       <c r="M114" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N114" s="4">
@@ -11391,7 +12756,7 @@
         <v>4882</v>
       </c>
       <c r="Q114" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R114" s="4">
@@ -11404,7 +12769,7 @@
         <v>1296634</v>
       </c>
       <c r="U114" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V114" s="4">
@@ -11417,7 +12782,7 @@
         <v>55504</v>
       </c>
       <c r="Y114" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z114" s="4">
@@ -11430,11 +12795,23 @@
         <v>32240</v>
       </c>
       <c r="AC114" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE114" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF114" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG114" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -11457,7 +12834,7 @@
         <v>71398</v>
       </c>
       <c r="I115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J115" s="4">
@@ -11470,7 +12847,7 @@
         <v>2972</v>
       </c>
       <c r="M115" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N115" s="4">
@@ -11483,7 +12860,7 @@
         <v>1904</v>
       </c>
       <c r="Q115" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R115" s="4">
@@ -11496,7 +12873,7 @@
         <v>401416</v>
       </c>
       <c r="U115" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V115" s="4">
@@ -11509,7 +12886,7 @@
         <v>14872</v>
       </c>
       <c r="Y115" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z115" s="4">
@@ -11522,11 +12899,23 @@
         <v>9479</v>
       </c>
       <c r="AC115" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE115" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF115" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG115" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -11549,7 +12938,7 @@
         <v>200900</v>
       </c>
       <c r="I116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J116" s="4" t="s">
@@ -11562,7 +12951,7 @@
         <v>125</v>
       </c>
       <c r="M116" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N116" s="4" t="s">
@@ -11575,7 +12964,7 @@
         <v>125</v>
       </c>
       <c r="Q116" s="7" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R116" s="4">
@@ -11588,7 +12977,7 @@
         <v>986100</v>
       </c>
       <c r="U116" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V116" s="4" t="s">
@@ -11601,7 +12990,7 @@
         <v>125</v>
       </c>
       <c r="Y116" s="7" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z116" s="4" t="s">
@@ -11614,11 +13003,23 @@
         <v>125</v>
       </c>
       <c r="AC116" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AE116" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF116" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG116" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -11641,7 +13042,7 @@
         <v>78112</v>
       </c>
       <c r="I117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J117" s="4">
@@ -11654,7 +13055,7 @@
         <v>3373</v>
       </c>
       <c r="M117" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N117" s="4">
@@ -11667,7 +13068,7 @@
         <v>2373</v>
       </c>
       <c r="Q117" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R117" s="4">
@@ -11680,7 +13081,7 @@
         <v>862404</v>
       </c>
       <c r="U117" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V117" s="4">
@@ -11693,7 +13094,7 @@
         <v>20649</v>
       </c>
       <c r="Y117" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z117" s="4">
@@ -11706,11 +13107,23 @@
         <v>10919</v>
       </c>
       <c r="AC117" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE117" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF117" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG117" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -11733,7 +13146,7 @@
         <v>103866</v>
       </c>
       <c r="I118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J118" s="4">
@@ -11746,7 +13159,7 @@
         <v>4508</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N118" s="4">
@@ -11759,7 +13172,7 @@
         <v>2330</v>
       </c>
       <c r="Q118" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R118" s="4">
@@ -11772,7 +13185,7 @@
         <v>1147837</v>
       </c>
       <c r="U118" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V118" s="4">
@@ -11785,7 +13198,7 @@
         <v>44544</v>
       </c>
       <c r="Y118" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z118" s="4">
@@ -11798,11 +13211,23 @@
         <v>28239</v>
       </c>
       <c r="AC118" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE118" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF118" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG118" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -11825,7 +13250,7 @@
         <v>325658</v>
       </c>
       <c r="I119" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J119" s="4">
@@ -11838,7 +13263,7 @@
         <v>11634</v>
       </c>
       <c r="M119" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N119" s="4">
@@ -11851,7 +13276,7 @@
         <v>5813</v>
       </c>
       <c r="Q119" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R119" s="4">
@@ -11864,7 +13289,7 @@
         <v>1672842</v>
       </c>
       <c r="U119" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V119" s="4">
@@ -11877,7 +13302,7 @@
         <v>58569</v>
       </c>
       <c r="Y119" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z119" s="4">
@@ -11890,11 +13315,23 @@
         <v>28212</v>
       </c>
       <c r="AC119" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE119" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF119" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG119" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -11917,7 +13354,7 @@
         <v>45016</v>
       </c>
       <c r="I120" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J120" s="4">
@@ -11930,7 +13367,7 @@
         <v>1793</v>
       </c>
       <c r="M120" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N120" s="4">
@@ -11943,7 +13380,7 @@
         <v>1304</v>
       </c>
       <c r="Q120" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R120" s="4">
@@ -11956,7 +13393,7 @@
         <v>753721</v>
       </c>
       <c r="U120" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V120" s="4">
@@ -11969,7 +13406,7 @@
         <v>39918</v>
       </c>
       <c r="Y120" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z120" s="4">
@@ -11982,11 +13419,23 @@
         <v>18507</v>
       </c>
       <c r="AC120" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE120" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF120" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG120" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -12009,7 +13458,7 @@
         <v>63481</v>
       </c>
       <c r="I121" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J121" s="4">
@@ -12022,7 +13471,7 @@
         <v>2588</v>
       </c>
       <c r="M121" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N121" s="4">
@@ -12035,7 +13484,7 @@
         <v>1344</v>
       </c>
       <c r="Q121" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R121" s="4">
@@ -12048,7 +13497,7 @@
         <v>741144</v>
       </c>
       <c r="U121" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V121" s="4">
@@ -12061,7 +13510,7 @@
         <v>14937</v>
       </c>
       <c r="Y121" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z121" s="4">
@@ -12074,11 +13523,23 @@
         <v>12533</v>
       </c>
       <c r="AC121" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE121" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF121" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG121" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -12101,7 +13562,7 @@
         <v>411500</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J122" s="4">
@@ -12114,7 +13575,7 @@
         <v>13580</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N122" s="4">
@@ -12127,7 +13588,7 @@
         <v>9638</v>
       </c>
       <c r="Q122" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R122" s="4">
@@ -12140,7 +13601,7 @@
         <v>1681700</v>
       </c>
       <c r="U122" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V122" s="4">
@@ -12153,7 +13614,7 @@
         <v>68815</v>
       </c>
       <c r="Y122" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z122" s="4">
@@ -12166,11 +13627,23 @@
         <v>37029</v>
       </c>
       <c r="AC122" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE122" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF122" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG122" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -12195,7 +13668,7 @@
       <c r="AA123" s="4"/>
       <c r="AC123" s="7"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -12220,7 +13693,7 @@
       <c r="AA124" s="4"/>
       <c r="AC124" s="7"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -12245,7 +13718,7 @@
       <c r="AA125" s="4"/>
       <c r="AC125" s="7"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -12270,7 +13743,7 @@
       <c r="AA126" s="4"/>
       <c r="AC126" s="7"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -12295,7 +13768,7 @@
       <c r="AA127" s="4"/>
       <c r="AC127" s="7"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
